--- a/documentation/build_orders/protoss/two_base_blink.xlsx
+++ b/documentation/build_orders/protoss/two_base_blink.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\protoss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6B4925-6115-4BF3-82F9-034946EDC527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1784CB47-4BD6-4C54-9BDD-1B69AF3150E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="7845" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
+    <workbookView xWindow="17445" yWindow="570" windowWidth="11220" windowHeight="11295" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C1E2F8-D576-4889-93BF-4269B7626941}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
